--- a/database_design.xlsx
+++ b/database_design.xlsx
@@ -1,13 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SPL\Legacy&amp;Looms\code_base\legacy-and-looms-docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808A49A5-149B-4153-B380-26F000F996A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="party" sheetId="2" r:id="rId1"/>
+    <sheet name="user_type" sheetId="14" r:id="rId2"/>
+    <sheet name="user" sheetId="4" r:id="rId3"/>
+    <sheet name="user_login" sheetId="5" r:id="rId4"/>
+    <sheet name="organization" sheetId="3" r:id="rId5"/>
+    <sheet name="organization_contact" sheetId="6" r:id="rId6"/>
+    <sheet name="organization_store" sheetId="7" r:id="rId7"/>
+    <sheet name="address" sheetId="8" r:id="rId8"/>
+    <sheet name="category" sheetId="9" r:id="rId9"/>
+    <sheet name="item" sheetId="10" r:id="rId10"/>
+    <sheet name="item_image" sheetId="12" r:id="rId11"/>
+    <sheet name="order" sheetId="15" r:id="rId12"/>
+    <sheet name="order_item" sheetId="16" r:id="rId13"/>
+    <sheet name="order_address" sheetId="17" r:id="rId14"/>
+    <sheet name="order_delivery" sheetId="18" r:id="rId15"/>
+    <sheet name="order_payment" sheetId="19" r:id="rId16"/>
+    <sheet name="item_review" sheetId="13" r:id="rId17"/>
+    <sheet name="user_favourite" sheetId="11" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +41,311 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="99">
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>modified_date</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>modified_by</t>
+  </si>
+  <si>
+    <t>checker_date</t>
+  </si>
+  <si>
+    <t>checker_id</t>
+  </si>
+  <si>
+    <t>maker_date</t>
+  </si>
+  <si>
+    <t>maker_id</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>varchar(1)</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>PK, AI</t>
+  </si>
+  <si>
+    <t>int(6)</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Column type</t>
+  </si>
+  <si>
+    <t>Column name</t>
+  </si>
+  <si>
+    <t>date_of_establishment</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>enum('REQUESTED', 'APPROVED', 'REJECTED', 'ACTIVE', 'CANCELED', 'ONHOLD')</t>
+  </si>
+  <si>
+    <t>onboarding_status</t>
+  </si>
+  <si>
+    <t>varchar(250)</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>UQ</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>PK, FK</t>
+  </si>
+  <si>
+    <t>party_id</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>no_of_ratings</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>email_id</t>
+  </si>
+  <si>
+    <t>identification_type</t>
+  </si>
+  <si>
+    <t>identification</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+  </si>
+  <si>
+    <t>secret</t>
+  </si>
+  <si>
+    <t>last_login</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>designation</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>user_party_id</t>
+  </si>
+  <si>
+    <t>organization_party_id</t>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+  </si>
+  <si>
+    <t>image_url</t>
+  </si>
+  <si>
+    <t>bucket_image_path</t>
+  </si>
+  <si>
+    <t>bucket_name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>decimal(10,5)</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>store_type</t>
+  </si>
+  <si>
+    <t>is_default</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>fourthline</t>
+  </si>
+  <si>
+    <t>thirdline</t>
+  </si>
+  <si>
+    <t>secondline</t>
+  </si>
+  <si>
+    <t>firstline</t>
+  </si>
+  <si>
+    <t>icon_url</t>
+  </si>
+  <si>
+    <t>enum('SINGLE', 'BULK')</t>
+  </si>
+  <si>
+    <t>allowed_order_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>int(3)</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>is_not_helpful_count</t>
+  </si>
+  <si>
+    <t>is_helpful_count</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>user_type_id</t>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+  </si>
+  <si>
+    <t>amount_currency</t>
+  </si>
+  <si>
+    <t>amount_to_be_paid</t>
+  </si>
+  <si>
+    <t>status_message</t>
+  </si>
+  <si>
+    <t>enum('ORDERED', 'APPROVED', 'REJECTED', 'ACTIVE', 'RETURNED')</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>ordered_time</t>
+  </si>
+  <si>
+    <t>return_chosen_store_id</t>
+  </si>
+  <si>
+    <t>return_assigned_agent_party_id</t>
+  </si>
+  <si>
+    <t>return_custoemr_chosen_delivery_strategy</t>
+  </si>
+  <si>
+    <t>return_status</t>
+  </si>
+  <si>
+    <t>chosen_store_id</t>
+  </si>
+  <si>
+    <t>assigned_agent_party_id</t>
+  </si>
+  <si>
+    <t>customer_chosen_delivery_strategy</t>
+  </si>
+  <si>
+    <t>amount_paid</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>enum('PARTIALLY_PAID', 'FULLY_PAID'')</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +353,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +391,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +695,2218 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28867E4-7DC3-4357-9447-C2718C07DFE0}">
+  <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000Sensitivity: General&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA29B30E-A5BB-48A4-AC5B-359E03EF12FC}">
+  <dimension ref="B2:AP19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="AP19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000Sensitivity: General&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E5AF4C-C55F-414A-9450-55C08EE97984}">
+  <dimension ref="B2:D7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000Sensitivity: General&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B41AD17-BCF8-481C-A6E6-10BD8B37F559}">
+  <dimension ref="B2:D16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000Sensitivity: General&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5A2541-C4B0-4853-8AAF-03E9BCB183C9}">
+  <dimension ref="B2:D6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000Sensitivity: General&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26EB939-6280-44A3-834A-B031C83BBF10}">
+  <dimension ref="B2:D14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000Sensitivity: General&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922CD1D2-2C9E-4ACB-AE39-00787EC4CB05}">
+  <dimension ref="B2:D15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000Sensitivity: General&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8EFBB0-B881-4F0E-9125-C34CE5BCB2A1}">
+  <dimension ref="B2:D7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000Sensitivity: General&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921E3DFF-DF44-4FD6-8C81-03887563C4A9}">
+  <dimension ref="B2:D9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000Sensitivity: General&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB70A2E7-131E-45F9-8330-41EB8C47BF5B}">
+  <dimension ref="B2:D5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000Sensitivity: General&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1779EDC-7499-463B-A828-807002C498BF}">
+  <dimension ref="B2:D5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000Sensitivity: General&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4053C0-B343-4A8B-A2F7-BDE10FF1CCE2}">
+  <dimension ref="B2:D22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000Sensitivity: General&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA204503-D444-415A-9C89-7DBD29F1448E}">
+  <dimension ref="B2:D7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000Sensitivity: General&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F820845-B618-4374-9C8B-7540F9F41F72}">
+  <dimension ref="B2:D16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000Sensitivity: General&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC3781B-B7B1-41B4-81B8-54EAF12230AD}">
+  <dimension ref="B2:D6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000Sensitivity: General&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5864C32F-BDBC-4BFA-B987-24E8556A589B}">
+  <dimension ref="B2:D17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000Sensitivity: General&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496080A2-6C79-47FC-A64C-0AB8E0E780B7}">
+  <dimension ref="B2:D18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000Sensitivity: General&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648AFDF7-EC0D-4986-A306-BAC6E83A99D1}">
+  <dimension ref="B2:D11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000Sensitivity: General&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
--- a/database_design.xlsx
+++ b/database_design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SPL\Legacy&amp;Looms\code_base\legacy-and-looms-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808A49A5-149B-4153-B380-26F000F996A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8886E5-7BFE-4F6D-8D44-9321D55CD86D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="party" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="order_address" sheetId="17" r:id="rId14"/>
     <sheet name="order_delivery" sheetId="18" r:id="rId15"/>
     <sheet name="order_payment" sheetId="19" r:id="rId16"/>
-    <sheet name="item_review" sheetId="13" r:id="rId17"/>
+    <sheet name="order_item_review" sheetId="13" r:id="rId17"/>
     <sheet name="user_favourite" sheetId="11" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="100">
   <si>
     <t>datetime</t>
   </si>
@@ -296,36 +296,18 @@
     <t>status_message</t>
   </si>
   <si>
-    <t>enum('ORDERED', 'APPROVED', 'REJECTED', 'ACTIVE', 'RETURNED')</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
     <t>ordered_time</t>
   </si>
   <si>
-    <t>return_chosen_store_id</t>
-  </si>
-  <si>
-    <t>return_assigned_agent_party_id</t>
-  </si>
-  <si>
-    <t>return_custoemr_chosen_delivery_strategy</t>
-  </si>
-  <si>
-    <t>return_status</t>
-  </si>
-  <si>
     <t>chosen_store_id</t>
   </si>
   <si>
     <t>assigned_agent_party_id</t>
   </si>
   <si>
-    <t>customer_chosen_delivery_strategy</t>
-  </si>
-  <si>
     <t>amount_paid</t>
   </si>
   <si>
@@ -335,10 +317,31 @@
     <t>mode</t>
   </si>
   <si>
-    <t>enum('PARTIALLY_PAID', 'FULLY_PAID'')</t>
-  </si>
-  <si>
     <t>order_id</t>
+  </si>
+  <si>
+    <t>order_item_id</t>
+  </si>
+  <si>
+    <t>enum('SUCCESS', 'FAILED', 'PARTIALLY_PAID')</t>
+  </si>
+  <si>
+    <t>delivery_strategy</t>
+  </si>
+  <si>
+    <t>enum('ORDERED', 'APPROVED', 'REJECTED','IN_TRANSIST', 'DELIVERED')</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>discount_price</t>
+  </si>
+  <si>
+    <t>is_discount_available</t>
+  </si>
+  <si>
+    <t>organization_store_id</t>
   </si>
 </sst>
 </file>
@@ -760,10 +763,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA29B30E-A5BB-48A4-AC5B-359E03EF12FC}">
-  <dimension ref="B2:AP19"/>
+  <dimension ref="B2:AP23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D18"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,108 +821,110 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -928,7 +933,7 @@
     </row>
     <row r="18" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>0</v>
@@ -936,7 +941,43 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="AP19" t="s">
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="AP23" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1038,13 +1079,13 @@
   <dimension ref="B2:D16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -1093,7 +1134,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -1102,10 +1143,10 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -1204,7 +1245,7 @@
   <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,7 +1277,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -1286,6 +1327,7 @@
   <cols>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -1301,7 +1343,7 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -1420,15 +1462,15 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922CD1D2-2C9E-4ACB-AE39-00787EC4CB05}">
-  <dimension ref="B2:D15"/>
+  <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1445,7 +1487,7 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -1456,7 +1498,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -1465,7 +1507,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -1474,7 +1516,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -1483,7 +1525,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -1492,75 +1534,39 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1576,13 +1582,13 @@
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1599,7 +1605,7 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -1610,25 +1616,25 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>30</v>
@@ -1655,16 +1661,16 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921E3DFF-DF44-4FD6-8C81-03887563C4A9}">
-  <dimension ref="B2:D9"/>
+  <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1692,7 +1698,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -1703,7 +1709,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -1714,39 +1720,50 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1762,7 +1779,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2797,7 +2814,7 @@
   <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/database_design.xlsx
+++ b/database_design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SPL\Legacy&amp;Looms\code_base\legacy-and-looms-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8886E5-7BFE-4F6D-8D44-9321D55CD86D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B8D52D-E05B-41BC-8B54-264AA176A0A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="party" sheetId="2" r:id="rId1"/>
@@ -702,7 +702,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA29B30E-A5BB-48A4-AC5B-359E03EF12FC}">
   <dimension ref="B2:AP23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:D16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +995,7 @@
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,7 +1079,7 @@
   <dimension ref="B2:D16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,7 +1245,7 @@
   <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D6"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,7 +1320,7 @@
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,7 +1465,7 @@
   <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,7 +1582,7 @@
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,7 +1664,7 @@
   <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB70A2E7-131E-45F9-8330-41EB8C47BF5B}">
   <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1845,7 +1845,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4053C0-B343-4A8B-A2F7-BDE10FF1CCE2}">
   <dimension ref="B2:D22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,7 +2130,7 @@
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B4" sqref="B4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2454,7 +2454,7 @@
   <dimension ref="B2:D17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2629,7 +2629,7 @@
   <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B3" sqref="B3:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
